--- a/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_+10%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_+10%.xlsx
@@ -71215,6 +71215,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.5815</v>
+      </c>
       <c r="C2" t="n">
         <v>421.6794444444444</v>
       </c>
@@ -71270,6 +71273,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>13.684</v>
+      </c>
       <c r="C3" t="n">
         <v>426.8344444444444</v>
       </c>
@@ -71325,6 +71331,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>12.57666666666667</v>
+      </c>
       <c r="C4" t="n">
         <v>448.6422222222222</v>
       </c>
@@ -71380,6 +71389,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>13.0245</v>
+      </c>
       <c r="C5" t="n">
         <v>420.098888888889</v>
       </c>
@@ -71435,6 +71447,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>13.01</v>
+      </c>
       <c r="C6" t="n">
         <v>437.5972222222222</v>
       </c>
@@ -71490,6 +71505,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>12.445</v>
+      </c>
       <c r="C7" t="n">
         <v>436.29</v>
       </c>
@@ -71545,6 +71563,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>14.4955</v>
+      </c>
       <c r="C8" t="n">
         <v>440.3355555555555</v>
       </c>
@@ -71600,6 +71621,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>13.438</v>
+      </c>
       <c r="C9" t="n">
         <v>430.1638888888889</v>
       </c>
@@ -71655,6 +71679,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>13.42583333333334</v>
+      </c>
       <c r="C10" t="n">
         <v>434.5538888888889</v>
       </c>
@@ -71710,6 +71737,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>15.04516666666667</v>
+      </c>
       <c r="C11" t="n">
         <v>464.2105555555556</v>
       </c>
@@ -71765,6 +71795,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>13.59466666666667</v>
+      </c>
       <c r="C12" t="n">
         <v>436.3094444444445</v>
       </c>
@@ -71820,6 +71853,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>13.116</v>
+      </c>
       <c r="C13" t="n">
         <v>430.4105555555556</v>
       </c>
@@ -71875,6 +71911,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>13.12616666666667</v>
+      </c>
       <c r="C14" t="n">
         <v>434.6372222222223</v>
       </c>
@@ -71930,6 +71969,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>12.46083333333333</v>
+      </c>
       <c r="C15" t="n">
         <v>434.6155555555556</v>
       </c>
@@ -71985,6 +72027,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>13.89416666666667</v>
+      </c>
       <c r="C16" t="n">
         <v>440.7416666666667</v>
       </c>
@@ -72040,6 +72085,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>14.666</v>
+      </c>
       <c r="C17" t="n">
         <v>449.7244444444444</v>
       </c>
@@ -72095,6 +72143,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>12.48133333333333</v>
+      </c>
       <c r="C18" t="n">
         <v>405.3588888888888</v>
       </c>
@@ -72150,6 +72201,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>13.90716666666667</v>
+      </c>
       <c r="C19" t="n">
         <v>459.8388888888888</v>
       </c>
@@ -72205,6 +72259,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>14.02166666666667</v>
+      </c>
       <c r="C20" t="n">
         <v>446.0638888888889</v>
       </c>
@@ -72260,6 +72317,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>13.90783333333333</v>
+      </c>
       <c r="C21" t="n">
         <v>459.4433333333334</v>
       </c>
@@ -72315,6 +72375,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>13.196</v>
+      </c>
       <c r="C22" t="n">
         <v>416.1694444444444</v>
       </c>
@@ -72370,6 +72433,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>12.52033333333333</v>
+      </c>
       <c r="C23" t="n">
         <v>408.7266666666667</v>
       </c>
@@ -72425,6 +72491,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>14.80783333333333</v>
+      </c>
       <c r="C24" t="n">
         <v>441.6677777777778</v>
       </c>
@@ -72480,6 +72549,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.656</v>
+      </c>
       <c r="C25" t="n">
         <v>441.8594444444444</v>
       </c>
@@ -72535,6 +72607,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>12.09133333333333</v>
+      </c>
       <c r="C26" t="n">
         <v>417.071111111111</v>
       </c>
@@ -72590,6 +72665,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>13.37783333333334</v>
+      </c>
       <c r="C27" t="n">
         <v>448.1694444444445</v>
       </c>
@@ -72645,6 +72723,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>11.47683333333333</v>
+      </c>
       <c r="C28" t="n">
         <v>404.4572222222222</v>
       </c>
@@ -72700,6 +72781,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>12.49416666666667</v>
+      </c>
       <c r="C29" t="n">
         <v>446.1199999999999</v>
       </c>
@@ -72755,6 +72839,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>12.34183333333333</v>
+      </c>
       <c r="C30" t="n">
         <v>425.7755555555556</v>
       </c>
@@ -72809,6 +72896,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12.46333333333333</v>
       </c>
       <c r="C31" t="n">
         <v>422.8916666666667</v>
